--- a/Fellesaktiviteter.xlsx
+++ b/Fellesaktiviteter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://krikom-my.sharepoint.com/personal/tor_skarprud_kristiansand_kommune_no/Documents/Inspektør/Program-egne/Fellesaktiviteter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://krikom-my.sharepoint.com/personal/tor_skarprud_kristiansand_kommune_no/Documents/Inspektør/Program-egne/Fellesaktiviteter/Fellesaktiviteter-25-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{A5519D18-3D92-4307-8978-42975BE80E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70C0230-0C7F-4614-8311-F4F09958F974}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{A5519D18-3D92-4307-8978-42975BE80E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE8EA43-7CD5-443D-829B-9332D290C1AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2953787A-578D-4100-A44F-1230A9B4F52A}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>Kulturtimen</t>
   </si>
   <si>
-    <t>Når det er snø</t>
-  </si>
-  <si>
     <t>Tidspunkt kommer</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>Heståsen og 4.-6. trinn</t>
+  </si>
+  <si>
+    <t>Når det kommer snø</t>
   </si>
 </sst>
 </file>
@@ -521,6 +521,69 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,69 +592,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398BE7A9-2DC6-4E27-B450-83712A8C6855}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,708 +943,708 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>45919</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>45926</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="21">
         <v>45954</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>45959</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>45961</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>45989</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="21">
         <v>46003</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>45996</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>46008</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>46009</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="21">
+        <v>46065</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7">
+        <v>46066</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="7">
+        <v>46183</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="7">
+        <v>46185</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="7">
+        <v>46185</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="24">
-        <v>46065</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="10">
-        <v>46066</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="10">
-        <v>46183</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="10">
-        <v>46185</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="10">
-        <v>46185</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="B42" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="20">
+        <v>46192</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="23">
-        <v>46192</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="16" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Fellesaktiviteter.xlsx
+++ b/Fellesaktiviteter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://krikom-my.sharepoint.com/personal/tor_skarprud_kristiansand_kommune_no/Documents/Inspektør/Program-egne/Fellesaktiviteter/Fellesaktiviteter-25-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{A5519D18-3D92-4307-8978-42975BE80E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE8EA43-7CD5-443D-829B-9332D290C1AB}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{A5519D18-3D92-4307-8978-42975BE80E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{654E1448-F6FD-4628-886B-F9465687E485}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2953787A-578D-4100-A44F-1230A9B4F52A}"/>
   </bookViews>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398BE7A9-2DC6-4E27-B450-83712A8C6855}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fellesaktiviteter.xlsx
+++ b/Fellesaktiviteter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://krikom-my.sharepoint.com/personal/tor_skarprud_kristiansand_kommune_no/Documents/Inspektør/Program-egne/Fellesaktiviteter/Fellesaktiviteter-25-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{A5519D18-3D92-4307-8978-42975BE80E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{654E1448-F6FD-4628-886B-F9465687E485}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{A5519D18-3D92-4307-8978-42975BE80E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{663D4513-E4A6-4C37-9061-AE3CA925E6D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2953787A-578D-4100-A44F-1230A9B4F52A}"/>
   </bookViews>
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398BE7A9-2DC6-4E27-B450-83712A8C6855}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,11 +1648,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
